--- a/public/import_template/template_schedule_inspection_security.xlsx
+++ b/public/import_template/template_schedule_inspection_security.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasakbarlonardi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/proapps/public/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BAEEF-1225-8540-BC9A-16685E24C023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92057461-B99A-4B4B-A66E-C2F2C977ECF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{ADCCD750-CDE3-5741-A811-B31D148828C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -50,16 +50,19 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Basment 1</t>
-  </si>
-  <si>
     <t>Shift Pagi</t>
   </si>
   <si>
-    <t>Roof Top</t>
-  </si>
-  <si>
-    <t>Shift Siang</t>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>Lobby Lift</t>
+  </si>
+  <si>
+    <t>Parking Area</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E07D6-D7EF-724A-9A61-A9C167050DAB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45265</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>45266</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
